--- a/cheat_sheet.xlsx
+++ b/cheat_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamweir/Desktop/Swinburne/IntroProgramming_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F7776-F738-7445-BDC6-C8C4E16A570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C57E46-FB58-8741-9988-988218F8EAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>command line</t>
   </si>
@@ -96,6 +96,39 @@
   </si>
   <si>
     <t>cd ..</t>
+  </si>
+  <si>
+    <t>dotnet new &lt;type&gt;</t>
+  </si>
+  <si>
+    <t>dotnet build</t>
+  </si>
+  <si>
+    <t>dotnet run</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>git commit -m &lt;comment&gt;</t>
+  </si>
+  <si>
+    <t>git push &lt;instance??&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git clone &lt;url&gt;</t>
+  </si>
+  <si>
+    <t>git fetch idklol</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git remote &lt;instance?? name&gt;  &lt;github url&gt;</t>
   </si>
 </sst>
 </file>
@@ -425,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -518,15 +551,24 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -538,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,40 +614,64 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
